--- a/web-platform_11_21_dev/static/media/data/account/create_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/create_users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_07_21_dev\static\media\data\accounts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_11_21_dev\static\media\data\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4BCA7-55DB-404B-8199-7BCDE47ADCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5BBBDF-4405-4801-93EC-E77151F041FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Страница 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Имя пользователя</t>
   </si>
@@ -59,15 +59,43 @@
   </si>
   <si>
     <t>Электронная почта</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Табельный номер</t>
+  </si>
+  <si>
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>Цех/Служба</t>
+  </si>
+  <si>
+    <t>Отдел/Участок</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Категория</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,69 +427,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/web-platform_11_21_dev/static/media/data/account/create_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/create_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_11_21_dev\static\media\data\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5BBBDF-4405-4801-93EC-E77151F041FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ADAFD1-8649-4746-A27D-B7DFD2D0DFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Имя пользователя</t>
   </si>
   <si>
-    <t>Зашифрованный Пароль</t>
-  </si>
-  <si>
     <t>Имя</t>
   </si>
   <si>
@@ -40,12 +37,6 @@
     <t>Доступ к админ панели</t>
   </si>
   <si>
-    <t>Bogdan</t>
-  </si>
-  <si>
-    <t>pbkdf2_sha256$216000$tan8haYN8vOP$dUf5S+d37br1qdvtGmhQu4ynM7xmdKv2Gr6U7KeX6vY=</t>
-  </si>
-  <si>
     <t>bogdandrienko@gmail.com</t>
   </si>
   <si>
@@ -55,9 +46,6 @@
     <t>Андриенко</t>
   </si>
   <si>
-    <t>Moderators</t>
-  </si>
-  <si>
     <t>Электронная почта</t>
   </si>
   <si>
@@ -80,13 +68,46 @@
   </si>
   <si>
     <t>Категория</t>
+  </si>
+  <si>
+    <t>970801351179</t>
+  </si>
+  <si>
+    <t>6Pb6OLPT6N</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t>Управление предприятия (ЦК)</t>
+  </si>
+  <si>
+    <t>Отдел информационных технологий</t>
+  </si>
+  <si>
+    <t>Сектор программного обеспечения</t>
+  </si>
+  <si>
+    <t>Техник-программист</t>
+  </si>
+  <si>
+    <t>специалисты (пром)</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Пароль</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +120,36 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -119,14 +170,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,100 +500,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="I2" s="6">
+        <v>931777</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B331E1AB-A638-4900-A083-51964053B102}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/web-platform_11_21_dev/static/media/data/account/create_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/create_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_11_21_dev\static\media\data\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ADAFD1-8649-4746-A27D-B7DFD2D0DFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589FF63-1102-4774-94CC-78532C0E34F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Имя пользователя</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Группа</t>
   </si>
   <si>
-    <t>Доступ к админ панели</t>
-  </si>
-  <si>
     <t>bogdandrienko@gmail.com</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>970801351179</t>
   </si>
   <si>
-    <t>6Pb6OLPT6N</t>
-  </si>
-  <si>
     <t>Николаевич</t>
   </si>
   <si>
@@ -94,20 +88,32 @@
     <t>специалисты (пром)</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>Пароль</t>
+  </si>
+  <si>
+    <t>Доступ к панели управления</t>
+  </si>
+  <si>
+    <t>Активный</t>
+  </si>
+  <si>
+    <t>It7qfRidW76q</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>User, Moderator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,11 +151,19 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,20 +196,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -500,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -512,111 +526,117 @@
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="1"/>
+    <col min="5" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="J2" s="7">
+        <v>931777</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6">
-        <v>931777</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4"/>
+      <c r="P2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B331E1AB-A638-4900-A083-51964053B102}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DD4115AC-9C59-41C1-A98C-768FA33B1BA4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/web-platform_11_21_dev/static/media/data/account/create_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/create_users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_11_21_dev\static\media\data\account\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogdan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589FF63-1102-4774-94CC-78532C0E34F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DC21E8-08D0-48D2-AAE5-CE43D5BC6726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Имя пользователя</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Фамилия</t>
   </si>
   <si>
-    <t>Группа</t>
-  </si>
-  <si>
     <t>bogdandrienko@gmail.com</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Должность</t>
   </si>
   <si>
-    <t>Категория</t>
-  </si>
-  <si>
     <t>970801351179</t>
   </si>
   <si>
@@ -88,15 +82,9 @@
     <t>специалисты (пром)</t>
   </si>
   <si>
-    <t>Пароль</t>
-  </si>
-  <si>
     <t>Доступ к панели управления</t>
   </si>
   <si>
-    <t>Активный</t>
-  </si>
-  <si>
     <t>It7qfRidW76q</t>
   </si>
   <si>
@@ -107,22 +95,33 @@
   </si>
   <si>
     <t>User, Moderator</t>
+  </si>
+  <si>
+    <t>Секретный вопрос</t>
+  </si>
+  <si>
+    <t>Секретный ответ</t>
+  </si>
+  <si>
+    <t>Активность аккаунта</t>
+  </si>
+  <si>
+    <t>Пароль аккаунта</t>
+  </si>
+  <si>
+    <t>Категория работника</t>
+  </si>
+  <si>
+    <t>Группы доступа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -175,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -183,33 +182,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,129 +550,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="17" width="15.7109375" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="15.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5">
+        <v>931777</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="7">
-        <v>931777</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="7"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="O3" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DD4115AC-9C59-41C1-A98C-768FA33B1BA4}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{04DEDC3B-83A7-413C-AB80-7C00415D0874}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
